--- a/master/output/slit_plan_M75_BAO.xlsx
+++ b/master/output/slit_plan_M75_BAO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Width-1 (mm)</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Width-3 (mm)</t>
   </si>
   <si>
+    <t>Width-4 (mm)</t>
+  </si>
+  <si>
     <t>Extra Width Generated (mm)</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>Weight-3 (kg)</t>
+  </si>
+  <si>
+    <t>Weight-4 (kg)</t>
   </si>
   <si>
     <t>Extra Weight (kg)</t>
@@ -413,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +465,14 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -468,358 +480,99 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D2">
+        <v>180</v>
+      </c>
+      <c r="E2">
         <v>190</v>
       </c>
-      <c r="E2">
-        <v>220</v>
-      </c>
       <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>700</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
         <v>1000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>822.6491771451605</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>157.1428571428571</v>
       </c>
-      <c r="L2">
-        <v>242.8571428571429</v>
-      </c>
       <c r="M2">
+        <v>185.7142857142857</v>
+      </c>
+      <c r="N2">
+        <v>257.1428571428571</v>
+      </c>
+      <c r="O2">
         <v>271.4285714285714</v>
       </c>
-      <c r="N2">
-        <v>314.2857142857143</v>
+      <c r="P2">
+        <v>114.2857142857143</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>380</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>710</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
         <v>1500</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1216.593853524533</v>
-      </c>
-      <c r="K3">
-        <v>274.6478873239437</v>
       </c>
       <c r="L3">
         <v>316.9014084507042</v>
       </c>
       <c r="M3">
-        <v>380.281690140845</v>
+        <v>359.1549295774648</v>
       </c>
       <c r="N3">
-        <v>507.0422535211267</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>802.8169014084507</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006897594C9B79984A9503F57AA3163864" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8f09cfd8081d4946ea63f076a4a2ae6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="af45101a-052c-4036-8036-7ef66ab8afdc" xmlns:ns3="f995cc96-2610-4ac0-b4cf-bca51f09a3ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc9778f5a3465f0b0b3332ecd03ebbac" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="af45101a-052c-4036-8036-7ef66ab8afdc"/>
-    <xsd:import namespace="f995cc96-2610-4ac0-b4cf-bca51f09a3ec"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="af45101a-052c-4036-8036-7ef66ab8afdc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e3e82df8-f6af-445d-9b0b-5c4dfc7c59a2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f995cc96-2610-4ac0-b4cf-bca51f09a3ec" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e261aa58-ac73-4488-b093-a449e24f15a8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="f995cc96-2610-4ac0-b4cf-bca51f09a3ec">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093123F3-C64C-498C-8AEA-87DFD5FD4DDC}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{995EF963-154F-46FE-8486-0A80E571C1C9}"/>
 </file>
--- a/master/output/slit_plan_M75_BAO.xlsx
+++ b/master/output/slit_plan_M75_BAO.xlsx
@@ -22,43 +22,43 @@
     <t>Width-2 (mm)</t>
   </si>
   <si>
+    <t>Extra Width Generated (mm)</t>
+  </si>
+  <si>
+    <t>Trim (mm)</t>
+  </si>
+  <si>
+    <t>Mother Coil Width (mm)</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Mother Coil Weight (kg)</t>
+  </si>
+  <si>
+    <t>Mother Coil Length (m)</t>
+  </si>
+  <si>
+    <t>Weight-1 (kg)</t>
+  </si>
+  <si>
+    <t>Weight-2 (kg)</t>
+  </si>
+  <si>
+    <t>Extra Weight (kg)</t>
+  </si>
+  <si>
     <t>Width-3 (mm)</t>
   </si>
   <si>
     <t>Width-4 (mm)</t>
   </si>
   <si>
-    <t>Extra Width Generated (mm)</t>
-  </si>
-  <si>
-    <t>Trim (mm)</t>
-  </si>
-  <si>
-    <t>Mother Coil Width (mm)</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Mother Coil Weight (kg)</t>
-  </si>
-  <si>
-    <t>Mother Coil Length (m)</t>
-  </si>
-  <si>
-    <t>Weight-1 (kg)</t>
-  </si>
-  <si>
-    <t>Weight-2 (kg)</t>
-  </si>
-  <si>
     <t>Weight-3 (kg)</t>
   </si>
   <si>
     <t>Weight-4 (kg)</t>
-  </si>
-  <si>
-    <t>Extra Weight (kg)</t>
   </si>
   <si>
     <t>M75_BAO</t>
@@ -477,49 +477,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="D2">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="E2">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
+        <v>700</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>700</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>822.6491771451605</v>
       </c>
       <c r="J2">
-        <v>1000</v>
+        <v>257.1428571428571</v>
       </c>
       <c r="K2">
-        <v>822.6491771451605</v>
+        <v>271.4285714285714</v>
       </c>
       <c r="L2">
-        <v>157.1428571428571</v>
+        <v>457.1428571428572</v>
       </c>
       <c r="M2">
-        <v>185.7142857142857</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>257.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>271.4285714285714</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>114.2857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -527,49 +527,49 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+      <c r="D3">
+        <v>140</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>710</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>1500</v>
+      </c>
+      <c r="I3">
+        <v>1216.593853524533</v>
+      </c>
+      <c r="J3">
+        <v>232.394366197183</v>
+      </c>
+      <c r="K3">
+        <v>274.6478873239437</v>
+      </c>
+      <c r="L3">
+        <v>295.7746478873239</v>
+      </c>
+      <c r="M3">
         <v>150</v>
       </c>
-      <c r="C3">
+      <c r="N3">
         <v>170</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>380</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>710</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>1500</v>
-      </c>
-      <c r="K3">
-        <v>1216.593853524533</v>
-      </c>
-      <c r="L3">
+      <c r="O3">
         <v>316.9014084507042</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>359.1549295774648</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>802.8169014084507</v>
       </c>
     </row>
   </sheetData>

--- a/master/output/slit_plan_M75_BAO.xlsx
+++ b/master/output/slit_plan_M75_BAO.xlsx
@@ -22,6 +22,12 @@
     <t>Width-2 (mm)</t>
   </si>
   <si>
+    <t>Width-3 (mm)</t>
+  </si>
+  <si>
+    <t>Width-4 (mm)</t>
+  </si>
+  <si>
     <t>Extra Width Generated (mm)</t>
   </si>
   <si>
@@ -46,19 +52,13 @@
     <t>Weight-2 (kg)</t>
   </si>
   <si>
+    <t>Weight-3 (kg)</t>
+  </si>
+  <si>
+    <t>Weight-4 (kg)</t>
+  </si>
+  <si>
     <t>Extra Weight (kg)</t>
-  </si>
-  <si>
-    <t>Width-3 (mm)</t>
-  </si>
-  <si>
-    <t>Width-4 (mm)</t>
-  </si>
-  <si>
-    <t>Weight-3 (kg)</t>
-  </si>
-  <si>
-    <t>Weight-4 (kg)</t>
   </si>
   <si>
     <t>M75_BAO</t>
@@ -477,49 +477,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>170</v>
+      </c>
+      <c r="E2">
         <v>190</v>
       </c>
-      <c r="D2">
-        <v>320</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>700</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1000</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>822.6491771451605</v>
       </c>
-      <c r="J2">
-        <v>257.1428571428571</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>157.1428571428571</v>
+      </c>
+      <c r="M2">
+        <v>185.7142857142857</v>
+      </c>
+      <c r="N2">
+        <v>242.8571428571429</v>
+      </c>
+      <c r="O2">
         <v>271.4285714285714</v>
       </c>
-      <c r="L2">
-        <v>457.1428571428572</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
-        <v>0</v>
+        <v>128.5714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -527,49 +527,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>370</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>710</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1500</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1216.593853524533</v>
       </c>
-      <c r="J3">
-        <v>232.394366197183</v>
-      </c>
-      <c r="K3">
-        <v>274.6478873239437</v>
-      </c>
       <c r="L3">
-        <v>295.7746478873239</v>
+        <v>316.9014084507042</v>
       </c>
       <c r="M3">
-        <v>150</v>
+        <v>380.281690140845</v>
       </c>
       <c r="N3">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>316.9014084507042</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>359.1549295774648</v>
+        <v>781.6901408450702</v>
       </c>
     </row>
   </sheetData>
